--- a/Machine_learning_simulations/Deterministic models.xlsx
+++ b/Machine_learning_simulations/Deterministic models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freedom\Desktop\Master_rad_mod\Machine_learning_simulations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freedom\Documents\GitHub\M21_paper_optimal_maintenance_strategy\Machine_learning_simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F6EA72-4DDF-431F-A30D-AEE1A11DBC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB16F685-83F6-4B71-B207-D35CDE263BB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="11688" windowHeight="12192" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samo vreme Rada" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Ime simulacije</t>
   </si>
@@ -75,15 +75,6 @@
     <t>Validation accuracy(MAE)</t>
   </si>
   <si>
-    <t>2_feature predvidja_otkaze_i_rad_LSTM_GRU_RNN_LSTM</t>
-  </si>
-  <si>
-    <t>2_feature predvidja_otkaze_i_rad_LSTM_GRU_RNN_GRU</t>
-  </si>
-  <si>
-    <t>2_feature predvidja_otkaze_i_rad_LSTM_GRU_RNN_RNN</t>
-  </si>
-  <si>
     <t>2features predict 1 output (vreme rada)_RNN</t>
   </si>
   <si>
@@ -99,15 +90,6 @@
     <t>2features predict 1 output (vreme rada)_LSTM</t>
   </si>
   <si>
-    <t>2features predict 1 output (vreme zastoja)_RNN</t>
-  </si>
-  <si>
-    <t>2features predict 1 output (vreme zastoja)_GRU</t>
-  </si>
-  <si>
-    <t>2features predict 1 output (vreme zastoja)_LSTM</t>
-  </si>
-  <si>
     <t>2features predict 2 outputs_RNN</t>
   </si>
   <si>
@@ -120,24 +102,6 @@
     <t>TF_trajanje otkaza_2feature_predvidjanja_duzinu otkaza_LSTM</t>
   </si>
   <si>
-    <t>Vreme_zastoja_(samo)_RNN_GRU_LSTM_RNN</t>
-  </si>
-  <si>
-    <t>Vreme_zastoja_(samo)_RNN_GRU_LSTM_GRU</t>
-  </si>
-  <si>
-    <t>Vreme_zastoja_(samo)_RNN_GRU_LSTM_LSTM</t>
-  </si>
-  <si>
-    <t>Vreme_popravke_(samo)_RNN_GRU_LSTM_RNN</t>
-  </si>
-  <si>
-    <t>Vreme_popravke_(samo)_RNN_GRU_LSTM_GRU</t>
-  </si>
-  <si>
-    <t>Vreme_popravke_(samo)_RNN_GRU_LSTM_LSTM</t>
-  </si>
-  <si>
     <t>2features predict 2 outputs (update after each example)_LSTM</t>
   </si>
   <si>
@@ -160,13 +124,58 @@
   </si>
   <si>
     <t>SUM Derministickih modela</t>
+  </si>
+  <si>
+    <t>Vreme_popravke_(samo)_RNN</t>
+  </si>
+  <si>
+    <t>Vreme_popravke_(samo)_LSTM</t>
+  </si>
+  <si>
+    <t>Vreme_popravke_(samo)_GRU</t>
+  </si>
+  <si>
+    <t>2 features (vreme rada I popravke) predvidja 1 output (vreme zastoja)_RNN</t>
+  </si>
+  <si>
+    <t>2 features (vreme rada I popravke) predvidja 1 output  (vreme zastoja)_LSTM</t>
+  </si>
+  <si>
+    <t>2 features (vreme rada I popravke) predvidja 1 output  (vreme zastoja)_GRU</t>
+  </si>
+  <si>
+    <t>Prehodna Vreme_zastoja predviđaju sledeće_RNN</t>
+  </si>
+  <si>
+    <t>Prehodna Vreme_zastoja predviđaju sledećeLSTM</t>
+  </si>
+  <si>
+    <t>Prehodna Vreme_zastoja predviđaju sledeće_GRU</t>
+  </si>
+  <si>
+    <t>2_feature predvidja_otkaze_i_rad_LSTM</t>
+  </si>
+  <si>
+    <t>2features predict 2 outputs (1po1)_LSTM</t>
+  </si>
+  <si>
+    <t>2features predict 2 outputs (1po1)_GRU</t>
+  </si>
+  <si>
+    <t>2_feature predvidja_otkaze_i_rad_RNN</t>
+  </si>
+  <si>
+    <t>2_feature predvidja_otkaze_i_rad_GRU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +202,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,11 +228,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +520,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,13 +547,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>20288.751723345587</v>
       </c>
       <c r="C2" s="1">
         <v>19965</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SQRT(C2)</f>
+        <v>141.29755836531641</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -548,10 +570,14 @@
       <c r="C3" s="1">
         <v>20546</v>
       </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D10" si="0">SQRT(C3)</f>
+        <v>143.33875958721003</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>21148.863783892462</v>
@@ -559,10 +585,14 @@
       <c r="C4" s="1">
         <v>20795</v>
       </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>144.20471559557268</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>71809.038430606612</v>
@@ -570,10 +600,14 @@
       <c r="C5" s="1">
         <v>57761</v>
       </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>240.33518260962126</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>73772.84673713235</v>
@@ -581,16 +615,24 @@
       <c r="C6" s="1">
         <v>58364</v>
       </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>241.58642345959757</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>72973.140625</v>
       </c>
       <c r="C7" s="1">
         <v>58374</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>241.60711910041061</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -603,10 +645,14 @@
       <c r="C8" s="1">
         <v>81655.7265625</v>
       </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>285.75466148866235</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>298591.83186406409</v>
@@ -614,7 +660,10 @@
       <c r="C9" s="1">
         <v>108757</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>329.78326215864865</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -626,10 +675,14 @@
       <c r="C10" s="1">
         <v>112001.9609375</v>
       </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>334.66694031155811</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <f>COUNT(C2:C10)</f>
@@ -641,6 +694,7 @@
     <sortCondition ref="C10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -649,13 +703,15 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.44140625" customWidth="1"/>
-    <col min="2" max="3" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -673,147 +729,188 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6">
         <v>17054.586969549007</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>7570</v>
       </c>
+      <c r="D2" s="4">
+        <f>SQRT(C2)</f>
+        <v>87.005746936624831</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6">
         <v>16260.95010653409</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>7778</v>
       </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D13" si="0">SQRT(C3)</f>
+        <v>88.192970241397362</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6">
         <v>14944.008646382914</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>8206</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>90.586974781146097</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>25943.044921875</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>19623.928847656251</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>140.08543410239429</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>22185.615234375</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>22055.615234375</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>148.51133032322821</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6">
+        <v>21694.190242991728</v>
+      </c>
+      <c r="C7" s="6">
+        <v>22124</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>148.74138630522441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6">
+        <v>21581.899370978859</v>
+      </c>
+      <c r="C8" s="6">
+        <v>22168</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>148.88922056347801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6">
+        <v>21430.984375</v>
+      </c>
+      <c r="C9" s="6">
+        <v>22170</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>148.89593681494469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1">
-        <v>21694.190242991728</v>
-      </c>
-      <c r="C7" s="1">
-        <v>22124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <v>21581.899370978859</v>
-      </c>
-      <c r="C8" s="1">
-        <v>22168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>21430.984375</v>
-      </c>
-      <c r="C9" s="1">
-        <v>22170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>2108436.25</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>24205</v>
       </c>
-      <c r="D10" s="1">
-        <v>108</v>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>155.5795616396961</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>99796.8046875</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>81655.7265625</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>285.75466148866235</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>175730.107421875</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>100088</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>316.36687563649895</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
         <v>490999.1875</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>10403883</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>3225.5050767282942</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <f>COUNT(C2:C13)</f>
@@ -833,15 +930,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A234AD-8B8A-4DDE-AB6B-67B4620575F1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.88671875" customWidth="1"/>
-    <col min="2" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -855,158 +953,159 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42207.535355082997</v>
+      </c>
+      <c r="C2" s="1">
+        <v>37307</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7">
         <v>42811.76941802536</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>37059</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43943.889086111478</v>
-      </c>
-      <c r="C3" s="1">
-        <v>37297</v>
-      </c>
-      <c r="D3" s="1">
-        <v>111</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43707.535355083513</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43943.889086111478</v>
       </c>
       <c r="C4" s="1">
-        <v>37307</v>
-      </c>
-      <c r="D4" s="1">
-        <v>115</v>
-      </c>
+        <v>37297</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7">
         <v>42066.334275595073</v>
       </c>
       <c r="C5" s="1">
         <v>37314</v>
       </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7">
         <v>42370.479857120714</v>
       </c>
       <c r="C6" s="1">
         <v>37333</v>
       </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7">
         <v>42531.463669044388</v>
       </c>
       <c r="C7" s="1">
         <v>37521</v>
       </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7">
         <v>42487.240648987383</v>
       </c>
       <c r="C8" s="1">
         <v>37614</v>
       </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7">
         <v>42176.677111639496</v>
       </c>
       <c r="C9" s="1">
         <v>38485</v>
       </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>47405.131768624073</v>
       </c>
       <c r="C10" s="1">
         <v>40469</v>
       </c>
-      <c r="D10" s="1">
-        <v>115</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7">
         <v>45320.699888570001</v>
       </c>
       <c r="C11" s="1">
         <v>42015</v>
       </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7">
         <v>34836.547780797104</v>
       </c>
       <c r="C12" s="1">
         <v>43502</v>
       </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
+        <v>45</v>
+      </c>
+      <c r="B13" s="7">
         <v>41666.466951000002</v>
       </c>
       <c r="C13" s="1">
         <v>47892</v>
       </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <f>COUNT(C2:C13)</f>
-        <v>12</v>
+        <f>COUNT(C4:C13)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1022,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AD0001-951E-4EE9-A737-E81628E86FCF}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1147,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>42487.240648987383</v>
@@ -1059,7 +1158,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>42370.479857120714</v>
@@ -1070,7 +1169,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>42066.334275595073</v>
@@ -1081,7 +1180,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <f>COUNT(C2:C4)</f>
@@ -1090,7 +1189,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <f>3+12+12+9</f>
